--- a/biology/Botanique/François-Thomas_de_Noé/François-Thomas_de_Noé.xlsx
+++ b/biology/Botanique/François-Thomas_de_Noé/François-Thomas_de_Noé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Thomas_de_No%C3%A9</t>
+          <t>François-Thomas_de_Noé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Thomas de Noé, dit Frank de Noé et aussi le vicomte de Noé et le marquis de Noé[1], né le 20 février 1806 à Colombo et mort le 24 mars 1887 au Mas-d'Agenais (Lot-et-Garonne)[2], est un botaniste français. Il participe en 1854 à la création de la Société botanique de France et fait paraître deux notices dans son bulletin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Thomas de Noé, dit Frank de Noé et aussi le vicomte de Noé et le marquis de Noé, né le 20 février 1806 à Colombo et mort le 24 mars 1887 au Mas-d'Agenais (Lot-et-Garonne), est un botaniste français. Il participe en 1854 à la création de la Société botanique de France et fait paraître deux notices dans son bulletin.
 Il a nommé le Phlomis bovei en l’honneur du botaniste Nicolas Bové.
 </t>
         </is>
